--- a/TicketBookingProject/src/test/resources/Excelsheet/NewProject.xlsx
+++ b/TicketBookingProject/src/test/resources/Excelsheet/NewProject.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18060" windowHeight="2904"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -364,7 +365,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
